--- a/WindowsForms/Template_/material WellToWell report.xlsx
+++ b/WindowsForms/Template_/material WellToWell report.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Word\Coding\WeeklyReport\WindowsForms\bin\Debug\Template\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="240" yWindow="30" windowWidth="12120" windowHeight="9000"/>
   </bookViews>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>No.</t>
   </si>
@@ -61,59 +66,17 @@
   </si>
   <si>
     <t>Total Curr Cost</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t>02040105051202</t>
-  </si>
-  <si>
-    <t>Casing, 5 1/2" (139.7MM) OD, 17LB/FT, N80, seamless, R3 LTC</t>
-  </si>
-  <si>
-    <t>Meter</t>
-  </si>
-  <si>
-    <t>150301-151</t>
-  </si>
-  <si>
-    <t>Prosopis C3-1, Drilling, Rig 86</t>
-  </si>
-  <si>
-    <t>150302-151</t>
-  </si>
-  <si>
-    <t>Baobab C1-4,Rig86</t>
-  </si>
-  <si>
-    <t>USD</t>
-  </si>
-  <si>
-    <t>12029900005001</t>
-  </si>
-  <si>
-    <t>Chemical, EMP. 200kg/drum</t>
-  </si>
-  <si>
-    <t>Drum</t>
-  </si>
-  <si>
-    <t>02040101095855</t>
-  </si>
-  <si>
-    <t>Casing, 9 5/8" OD, 36LB/FT, J55, seamles, R3, BTC.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
-    <numFmt numFmtId="185" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="187" formatCode="yyyy/m/d;@"/>
+    <numFmt numFmtId="176" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -122,10 +85,12 @@
       <b/>
       <sz val="8"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="8"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -136,7 +101,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -146,24 +111,17 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64" tint="0"/>
+        <color indexed="64"/>
       </left>
       <right style="thin">
-        <color indexed="64" tint="0"/>
+        <color indexed="64"/>
       </right>
       <top style="thin">
-        <color indexed="64" tint="0"/>
+        <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64" tint="0"/>
+        <color indexed="64"/>
       </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -172,54 +130,33 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="185" fontId="2" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="187" fontId="2" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="2" xfId="0">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="2" fillId="0" borderId="0" xfId="0">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -230,6 +167,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -351,7 +291,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -386,7 +326,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -595,222 +535,76 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A7:O14"/>
+  <dimension ref="A7:O7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K1" sqref="K1"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="4.625" customWidth="1" style="9"/>
-    <col min="2" max="2" width="5.875" customWidth="1" style="2"/>
-    <col min="3" max="3" width="11.5" customWidth="1" style="2"/>
-    <col min="4" max="4" width="45.625" customWidth="1" style="3"/>
-    <col min="5" max="5" width="3.375" customWidth="1" style="2"/>
-    <col min="6" max="6" width="8.25" customWidth="1" style="4"/>
-    <col min="7" max="7" width="6.75" customWidth="1" style="4"/>
-    <col min="8" max="8" width="10.875" customWidth="1" style="4"/>
-    <col min="9" max="9" width="8.5" customWidth="1" style="2"/>
-    <col min="10" max="10" width="7.5" customWidth="1" style="2"/>
-    <col min="11" max="11" width="9.5" customWidth="1" style="5"/>
-    <col min="12" max="12" width="7" customWidth="1" style="2"/>
-    <col min="13" max="13" width="7.875" customWidth="1" style="2"/>
-    <col min="14" max="14" width="8.375" customWidth="1" style="4"/>
-    <col min="15" max="15" width="14.75" customWidth="1" style="4"/>
+    <col min="1" max="1" width="4.625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="5.875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="45.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="3.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.25" style="3" customWidth="1"/>
+    <col min="7" max="7" width="6.75" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="8.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="7.5" style="1" customWidth="1"/>
+    <col min="11" max="11" width="9.5" style="4" customWidth="1"/>
+    <col min="12" max="12" width="7" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.875" style="1" customWidth="1"/>
+    <col min="14" max="14" width="8.375" style="3" customWidth="1"/>
+    <col min="15" max="15" width="14.75" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" ht="21" s="8" customFormat="1">
-      <c r="A7" s="6" t="s">
+    <row r="7" spans="1:15" s="7" customFormat="1" ht="21" x14ac:dyDescent="0.15">
+      <c r="A7" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="F7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="I7" s="7" t="s">
+      <c r="I7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J7" s="7" t="s">
+      <c r="J7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="K7" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="7" t="s">
+      <c r="L7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="M7" s="7" t="s">
+      <c r="M7" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="N7" s="7" t="s">
+      <c r="N7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="O7" s="7" t="s">
+      <c r="O7" s="6" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="10">
-        <v>1</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="13">
-        <v>72.81</v>
-      </c>
-      <c r="G8" s="13">
-        <v>48.5</v>
-      </c>
-      <c r="H8" s="13">
-        <v>3531.29</v>
-      </c>
-      <c r="I8" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K8" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="L8" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="M8" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="N8" s="13">
-        <v>48.5</v>
-      </c>
-      <c r="O8" s="13">
-        <v>3531.29</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="10">
-        <v>2</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="13">
-        <v>4</v>
-      </c>
-      <c r="G9" s="13">
-        <v>1284</v>
-      </c>
-      <c r="H9" s="13">
-        <v>5136</v>
-      </c>
-      <c r="I9" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J9" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K9" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="L9" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="M9" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="N9" s="13">
-        <v>1284</v>
-      </c>
-      <c r="O9" s="13">
-        <v>5136</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="10">
-        <v>3</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E10" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="13">
-        <v>64.63</v>
-      </c>
-      <c r="G10" s="13">
-        <v>105.5</v>
-      </c>
-      <c r="H10" s="13">
-        <v>6818.47</v>
-      </c>
-      <c r="I10" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="J10" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K10" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="L10" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="M10" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="N10" s="13">
-        <v>105.5</v>
-      </c>
-      <c r="O10" s="13">
-        <v>6818.47</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="H14" s="15">
-        <v>15485.76</v>
       </c>
     </row>
   </sheetData>
@@ -818,7 +612,7 @@
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.98425196850393704" bottom="0.98425196850393704" header="0.51181102362204722" footer="0.51181102362204722"/>
   <pageSetup paperSize="9" scale="80" orientation="landscape"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
